--- a/NewSLDAProcess.xlsx
+++ b/NewSLDAProcess.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LDA" sheetId="1" r:id="rId1"/>
+    <sheet name="TF IDF" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorLDA.R" "/var/www/html/TextDataPreProcessingR/data/reuters-1.csv" "reuters-1" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "Reuters 005-006 LDA words vector 0.5" "0.5"</t>
   </si>
@@ -255,9 +256,6 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>not started</t>
-  </si>
-  <si>
     <t>./slda est "/var/www/html/LDACpp/data/reuters-1/reuters-1-80_data.txt" "/var/www/html/LDACpp/data/reuters-1/reuters-1-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 44 seeded "/var/www/html/LDACpp/data/reuters-1/08/80"</t>
   </si>
   <si>
@@ -276,33 +274,6 @@
     <t>./slda inf "/var/www/html/LDACpp/data/reuters-1/reuters-1-80-test_data.txt" "/var/www/html/LDACpp/data/reuters-1/reuters-1-80-test_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" "/var/www/html/LDACpp/data/reuters-1/02/80/final.model" "/var/www/html/LDACpp/data/reuters-1/02/80"</t>
   </si>
   <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 44 seeded "/var/www/html/LDACpp/data/reuters-2/08/50"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 44 seeded "/var/www/html/LDACpp/data/reuters-2/05/50"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 44 seeded "/var/www/html/LDACpp/data/reuters-2/02/50"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 44 seeded "/var/www/html/LDACpp/data/reuters-2/08/75"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 44 seeded "/var/www/html/LDACpp/data/reuters-2/05/75"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 44 seeded "/var/www/html/LDACpp/data/reuters-2/02/75"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 44 seeded "/var/www/html/LDACpp/data/reuters-2/08/80"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 44 seeded "/var/www/html/LDACpp/data/reuters-2/05/80"</t>
-  </si>
-  <si>
-    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 44 seeded "/var/www/html/LDACpp/data/reuters-2/02/80"</t>
-  </si>
-  <si>
     <t>./slda inf "/var/www/html/LDACpp/data/reuters-2/reuters-2-50-test_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50-test_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" "/var/www/html/LDACpp/data/reuters-2/08/50/final.model" "/var/www/html/LDACpp/data/reuters-2/08/50"</t>
   </si>
   <si>
@@ -331,6 +302,51 @@
   </si>
   <si>
     <t>IMPORTANT:  CHANGE NUMBER OF TOPICS FOR REUTERS-2 !!</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 59 seeded "/var/www/html/LDACpp/data/reuters-2/08/50"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 59 seeded "/var/www/html/LDACpp/data/reuters-2/05/50"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-50_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 59 seeded "/var/www/html/LDACpp/data/reuters-2/02/50"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 59 seeded "/var/www/html/LDACpp/data/reuters-2/08/75"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 59 seeded "/var/www/html/LDACpp/data/reuters-2/05/75"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-75_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 59 seeded "/var/www/html/LDACpp/data/reuters-2/02/75"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.8 59 seeded "/var/www/html/LDACpp/data/reuters-2/08/80"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.5 59 seeded "/var/www/html/LDACpp/data/reuters-2/05/80"</t>
+  </si>
+  <si>
+    <t>./slda est "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_data.txt" "/var/www/html/LDACpp/data/reuters-2/reuters-2-80_labels_int.txt" "/var/www/html/LDACpp/slda/settings.txt" 0.2 59 seeded "/var/www/html/LDACpp/data/reuters-2/02/80"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-1.csv" "reuters-1" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-1 words vector with TF-IDF Train:50" "0.5"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-1.csv" "reuters-1" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-1 words vector with TF-IDF Train:75" "0.75"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-1.csv" "reuters-1" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-1 words vector with TF-IDF Train:80" "0.8"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-2.csv" "reuters-2" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-2 words vector with TF-IDF Train:50" "0.5"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-2.csv" "reuters-2" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-2 words vector with TF-IDF Train:75" "0.75"</t>
+  </si>
+  <si>
+    <t>Rscript "/var/www/html/dev/TextDataPreProcessingR/WordsVectorTFIDF.R" "/var/www/html/TextDataPreProcessingR/data/reuters-2.csv" "reuters-2" "/var/www/html/dev/TextDataPreProcessingR/DBCredentials.R" "reuters-2 words vector with TF-IDF Train:80" "0.8"</t>
   </si>
 </sst>
 </file>
@@ -402,7 +418,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -730,1506 +746,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2511,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2552,7 +1068,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2560,7 +1076,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2568,7 +1084,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -2605,7 +1121,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -2613,7 +1129,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -2621,7 +1137,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2653,7 +1169,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2661,7 +1177,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -2669,7 +1185,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -2706,7 +1222,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -2714,7 +1230,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2722,7 +1238,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2754,7 +1270,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2762,7 +1278,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -2770,7 +1286,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2807,7 +1323,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
@@ -2815,7 +1331,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>70</v>
@@ -2823,7 +1339,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
@@ -2889,103 +1405,103 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3043,98 +1559,98 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3160,7 +1676,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
         <v>47</v>
@@ -3184,7 +1700,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
         <v>50</v>
@@ -3208,7 +1724,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
         <v>53</v>
@@ -3216,7 +1732,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
@@ -3224,7 +1740,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
         <v>55</v>
@@ -3232,7 +1748,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
@@ -3240,7 +1756,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
         <v>57</v>
@@ -3248,7 +1764,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
         <v>58</v>
@@ -3256,7 +1772,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
         <v>59</v>
@@ -3264,7 +1780,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
         <v>60</v>
@@ -3272,7 +1788,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
         <v>61</v>
@@ -3280,7 +1796,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -3288,13 +1804,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"complete"</formula>
     </cfRule>
     <cfRule type="iconSet" priority="4">
@@ -3312,57 +1828,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>"not started"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"complete"</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
